--- a/static/data/modelo_dados_certificado.xlsx
+++ b/static/data/modelo_dados_certificado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dados\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4f77498e1fb0bfd/Programação Python/gean/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8844E8D-6CB3-4EA1-B9C5-4D2F4CED2D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F8844E8D-6CB3-4EA1-B9C5-4D2F4CED2D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18D15EB1-A3A3-4D19-966C-BDD30D51C28F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados para importar" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>elemento</t>
   </si>
@@ -230,6 +230,39 @@
   </si>
   <si>
     <t>TIPO DE FRAÇÃO DE MASSA</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
   </si>
 </sst>
 </file>
@@ -720,7 +753,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -825,7 +858,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
-            <xm:f>'Dados Base'!$C$2:$C$50</xm:f>
+            <xm:f>'Dados Base'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A65536</xm:sqref>
         </x14:dataValidation>
@@ -837,10 +870,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C50"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,235 +922,291 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/data/modelo_dados_certificado.xlsx
+++ b/static/data/modelo_dados_certificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4f77498e1fb0bfd/Programação Python/gean/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F8844E8D-6CB3-4EA1-B9C5-4D2F4CED2D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18D15EB1-A3A3-4D19-966C-BDD30D51C28F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F8844E8D-6CB3-4EA1-B9C5-4D2F4CED2D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23C6C6D9-4764-47C4-8B79-5C9C355FCAFE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados para importar" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>elemento</t>
   </si>
@@ -263,13 +263,16 @@
   </si>
   <si>
     <t>Zr</t>
+  </si>
+  <si>
+    <t>Referência</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,6 +302,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -416,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,9 +762,9 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -844,23 +853,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'Dados Base'!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B65536</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Dados Base'!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I65536</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF8102C1-F3EF-444B-8F0E-E0DBE6724A61}">
           <x14:formula1>
-            <xm:f>'Dados Base'!#REF!</xm:f>
+            <xm:f>'Dados Base'!$C$2:$C$61</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A65536</xm:sqref>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA5401E7-FE5D-4B28-AD5D-A6B5DA0EEE82}">
+          <x14:formula1>
+            <xm:f>'Dados Base'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -873,9 +882,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD125"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -897,7 +904,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -908,300 +915,303 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+      <c r="C37" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+      <c r="C38" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+      <c r="C39" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+      <c r="C40" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+      <c r="C43" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+      <c r="C44" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+      <c r="C45" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+      <c r="C46" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+      <c r="C47" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+      <c r="C49" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+      <c r="C50" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+      <c r="C51" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+      <c r="C53" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+      <c r="C55" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
+      <c r="C58" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
+      <c r="C59" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
+      <c r="C60" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
+      <c r="C61" s="11" t="s">
         <v>76</v>
       </c>
     </row>

--- a/static/data/modelo_dados_certificado.xlsx
+++ b/static/data/modelo_dados_certificado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4f77498e1fb0bfd/Programação Python/gean/static/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{F8844E8D-6CB3-4EA1-B9C5-4D2F4CED2D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23C6C6D9-4764-47C4-8B79-5C9C355FCAFE}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{F8844E8D-6CB3-4EA1-B9C5-4D2F4CED2D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E76DDFB-568B-4612-BA30-A432E590950E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados para importar" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>elemento</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Referência</t>
+  </si>
+  <si>
+    <t>Nb</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,9 +766,9 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B1048576"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,7 +865,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF8102C1-F3EF-444B-8F0E-E0DBE6724A61}">
           <x14:formula1>
-            <xm:f>'Dados Base'!$C$2:$C$61</xm:f>
+            <xm:f>'Dados Base'!$C$2:$C$62</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -880,9 +884,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1086,132 +1092,137 @@
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="11" t="s">
-        <v>37</v>
+      <c r="C36" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="11" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="11" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C50" s="11" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C51" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C52" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C53" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C54" s="11" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C55" s="11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C56" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C57" s="11" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C58" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C59" s="11" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C60" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C61" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="11" t="s">
         <v>76</v>
       </c>
     </row>
